--- a/TasksList/TasksList.xlsx
+++ b/TasksList/TasksList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Sno</t>
   </si>
   <si>
     <t>2. Find an eff algo that displays all possible sequences of length N using N 
@@ -93,6 +90,24 @@
   <si>
     <t>1. Input: 5 3 4
 2. output: 19</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Java class</t>
+  </si>
+  <si>
+    <t>GenerateBinarySequence.java</t>
+  </si>
+  <si>
+    <t>GenerateCharSequence.java</t>
+  </si>
+  <si>
+    <t>datastructures\priorityqueue</t>
+  </si>
+  <si>
+    <t>S.No</t>
   </si>
 </sst>
 </file>
@@ -108,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -137,6 +158,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -419,40 +449,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="3" width="17.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="68.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="27.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -461,54 +497,78 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TasksList/TasksList.xlsx
+++ b/TasksList/TasksList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>S.No</t>
+  </si>
+  <si>
+    <t>6. Find an efficient solution to place N Queens in a NXN chess board suchthat no two queens can kill each other.</t>
+  </si>
+  <si>
+    <t>programs\backtracking\QueensProblem.java</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +577,26 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42467</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TasksList/TasksList.xlsx
+++ b/TasksList/TasksList.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FileProblems" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +115,15 @@
   </si>
   <si>
     <t>programs\backtracking\QueensProblem.java</t>
+  </si>
+  <si>
+    <t>Find an eff algo that returns the Kth Line from end of the file.</t>
+  </si>
+  <si>
+    <t>Find an eff algo that sorts a given txt file of numbers.</t>
+  </si>
+  <si>
+    <t>Find an eff algo that search for a record in a given txt file.</t>
   </si>
 </sst>
 </file>
@@ -155,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -175,6 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,4 +611,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42620</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TasksList/TasksList.xlsx
+++ b/TasksList/TasksList.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\trunk\TasksList\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="FileProblems" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -124,6 +120,12 @@
   </si>
   <si>
     <t>Find an eff algo that search for a record in a given txt file.</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Implement trie datastructure</t>
   </si>
 </sst>
 </file>
@@ -458,7 +460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,7 +471,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,4 +680,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42681</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>